--- a/NetAgent/src/main/resources/Downloads/InventoryPullReport_NA (1).xlsx
+++ b/NetAgent/src/main/resources/Downloads/InventoryPullReport_NA (1).xlsx
@@ -270,7 +270,7 @@
       </c>
       <c s="4" t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">05/20/2023</t>
+          <t xml:space="preserve">08/18/2023</t>
         </is>
       </c>
       <c s="3" t="inlineStr" r="E7">
@@ -280,7 +280,7 @@
       </c>
       <c s="4" t="inlineStr" r="F7">
         <is>
-          <t xml:space="preserve">05/30/2023</t>
+          <t xml:space="preserve">08/28/2023</t>
         </is>
       </c>
     </row>
@@ -296,7 +296,7 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
 &amp;"-,Regular"©2011-2023 MNX Global Logistics. All rights reserved. 
-&amp;"-,Regular"5/29/2023 11:24 PM &amp;C&amp;"Arial,Regular"&amp;9 Print User : selenium.automation &amp;R&amp;"Arial,Regul</oddFooter>
+&amp;"-,Regular"8/28/2023 12:45 AM &amp;C&amp;"Arial,Regular"&amp;9 Print User : selenium.automation &amp;R&amp;"Arial,Regul</oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>
 </worksheet>
